--- a/biology/Médecine/Triangle_omo-claviculaire/Triangle_omo-claviculaire.xlsx
+++ b/biology/Médecine/Triangle_omo-claviculaire/Triangle_omo-claviculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triangle omo-claviculaire (ou trigone omo-claviculaire) est la plus petite division de la région sus-claviculaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triangle omo-claviculaire est situé en bas de la région sus-claviculaire. Il est limité en haut par le ventre inférieur du muscle omo-hyoïdien, en bas par la clavicule et médialement par le bord postérieur du muscle sterno-cléido-mastoïdien.
 Sa couche superficielle est formée par le tégument, le muscle platysma et ses fascias.
@@ -545,7 +559,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Juste au-dessus du niveau de la clavicule, se trouve la troisième partie de l'artère subclavière qui se courbe latéralement et vers le bas à partir du bord latéral du muscle scalène antérieur. Parfois, cette artère s'élève jusqu'à 4 cm. au-dessus de la clavicule; parfois et passe devant le muscle scalène antérieur ou perce les fibres de ce muscle.
 Passant transversalement derrière la clavicule se trouvent l'artère et la veine supra-scapulaire. Dans l'angle supérieur du triangle, passent l'artère dorsale de la scapula et sa veine.
@@ -582,7 +598,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le triangle omo-claviculaire est une zone d'accès pour un éventuelle ligature de l'artère subclavière.
 La taille des ganglions de ce triangle intervient au niveau N3 pour la classification TNM du carcinome du nasopharynx.
